--- a/backend/exports/Bao-cao-doanh-thu-Thang-12-2024.xlsx
+++ b/backend/exports/Bao-cao-doanh-thu-Thang-12-2024.xlsx
@@ -5,14 +5,44 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Ngày 1.12" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Tổng Doanh Thu" state="visible" r:id="rId5"/>
+    <sheet sheetId="2" name="Ngày 2.12" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Ngày 3.12" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="Ngày 4.12" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="Ngày 5.12" state="visible" r:id="rId8"/>
+    <sheet sheetId="6" name="Ngày 6.12" state="visible" r:id="rId9"/>
+    <sheet sheetId="7" name="Ngày 7.12" state="visible" r:id="rId10"/>
+    <sheet sheetId="8" name="Ngày 8.12" state="visible" r:id="rId11"/>
+    <sheet sheetId="9" name="Ngày 9.12" state="visible" r:id="rId12"/>
+    <sheet sheetId="10" name="Ngày 10.12" state="visible" r:id="rId13"/>
+    <sheet sheetId="11" name="Ngày 11.12" state="visible" r:id="rId14"/>
+    <sheet sheetId="12" name="Ngày 12.12" state="visible" r:id="rId15"/>
+    <sheet sheetId="13" name="Ngày 13.12" state="visible" r:id="rId16"/>
+    <sheet sheetId="14" name="Ngày 14.12" state="visible" r:id="rId17"/>
+    <sheet sheetId="15" name="Ngày 15.12" state="visible" r:id="rId18"/>
+    <sheet sheetId="16" name="Ngày 16.12" state="visible" r:id="rId19"/>
+    <sheet sheetId="17" name="Ngày 17.12" state="visible" r:id="rId20"/>
+    <sheet sheetId="18" name="Ngày 18.12" state="visible" r:id="rId21"/>
+    <sheet sheetId="19" name="Ngày 19.12" state="visible" r:id="rId22"/>
+    <sheet sheetId="20" name="Ngày 20.12" state="visible" r:id="rId23"/>
+    <sheet sheetId="21" name="Ngày 21.12" state="visible" r:id="rId24"/>
+    <sheet sheetId="22" name="Ngày 22.12" state="visible" r:id="rId25"/>
+    <sheet sheetId="23" name="Ngày 23.12" state="visible" r:id="rId26"/>
+    <sheet sheetId="24" name="Ngày 24.12" state="visible" r:id="rId27"/>
+    <sheet sheetId="25" name="Ngày 25.12" state="visible" r:id="rId28"/>
+    <sheet sheetId="26" name="Ngày 26.12" state="visible" r:id="rId29"/>
+    <sheet sheetId="27" name="Ngày 27.12" state="visible" r:id="rId30"/>
+    <sheet sheetId="28" name="Ngày 28.12" state="visible" r:id="rId31"/>
+    <sheet sheetId="29" name="Ngày 29.12" state="visible" r:id="rId32"/>
+    <sheet sheetId="30" name="Ngày 30.12" state="visible" r:id="rId33"/>
+    <sheet sheetId="31" name="Ngày 31.12" state="visible" r:id="rId34"/>
+    <sheet sheetId="32" name="Tổng Doanh Thu" state="visible" r:id="rId35"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="69">
   <si>
     <t>BẢNG KÊ DOANH THU</t>
   </si>
@@ -59,52 +89,136 @@
     <t>400,000</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>phòng VIP</t>
+  </si>
+  <si>
+    <t>450,000</t>
+  </si>
+  <si>
+    <t>Tổng:</t>
+  </si>
+  <si>
+    <t>1,300,000</t>
+  </si>
+  <si>
+    <t>Tổng doanh thu:</t>
+  </si>
+  <si>
+    <t>Số phòng:</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Số đoàn:</t>
+  </si>
+  <si>
+    <t>NGÀY 2/12/2024</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>NGÀY 3/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 4/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 5/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 6/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 7/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 8/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 9/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 10/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 11/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 12/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 13/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 14/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 15/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 16/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 17/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 18/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 19/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 20/12/2024</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>NGÀY 21/12/2024</t>
+  </si>
+  <si>
+    <t>1,250,000</t>
+  </si>
+  <si>
+    <t>NGÀY 22/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 23/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 24/12/2024</t>
+  </si>
+  <si>
+    <t>800,000</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>800,000</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Tổng:</t>
-  </si>
-  <si>
-    <t>2,400,000</t>
-  </si>
-  <si>
-    <t>Tổng doanh thu:</t>
-  </si>
-  <si>
-    <t>Số phòng:</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Số đoàn:</t>
-  </si>
-  <si>
-    <t>phòng VIP</t>
-  </si>
-  <si>
-    <t>450,000</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3,750,000</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5,100,000</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>NGÀY 25/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 26/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 27/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 28/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 29/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 30/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 31/12/2024</t>
   </si>
   <si>
     <t>THÁNG 12/2024</t>
@@ -538,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:K10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="12" width="20" customWidth="1"/>
+    <col min="1" max="11" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -605,7 +719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -615,146 +729,128 @@
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
+      <c r="D4" s="4">
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -778,359 +874,1327 @@
         <v>23</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" ht="25" customHeight="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
       </c>
     </row>
-    <row r="16" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" ht="25" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" ht="25" customHeight="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
       </c>
     </row>
-    <row r="23" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>17</v>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1145,6 +2209,2064 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
@@ -1163,7 +4285,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1176,19 +4298,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1196,13 +4318,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>15300000</v>
+        <v>16100000</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -1216,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -1236,7 +4358,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -1256,7 +4378,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -1279,4 +4401,796 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="11" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>
--- a/backend/exports/Bao-cao-doanh-thu-Thang-12-2024.xlsx
+++ b/backend/exports/Bao-cao-doanh-thu-Thang-12-2024.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="69">
   <si>
     <t>BẢNG KÊ DOANH THU</t>
   </si>
@@ -83,108 +83,111 @@
     <t>Ghi chú</t>
   </si>
   <si>
+    <t>phòng VIP</t>
+  </si>
+  <si>
+    <t>450,000</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tổng:</t>
+  </si>
+  <si>
+    <t>900,000</t>
+  </si>
+  <si>
+    <t>Tổng doanh thu:</t>
+  </si>
+  <si>
+    <t>Số phòng:</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Số đoàn:</t>
+  </si>
+  <si>
+    <t>NGÀY 2/12/2024</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>NGÀY 3/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 4/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 5/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 6/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 7/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 8/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 9/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 10/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 11/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 12/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 13/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 14/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 15/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 16/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 17/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 18/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 19/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 20/12/2024</t>
+  </si>
+  <si>
     <t>phòng đôi</t>
   </si>
   <si>
     <t>400,000</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>phòng VIP</t>
-  </si>
-  <si>
-    <t>450,000</t>
-  </si>
-  <si>
-    <t>Tổng:</t>
-  </si>
-  <si>
-    <t>1,300,000</t>
-  </si>
-  <si>
-    <t>Tổng doanh thu:</t>
-  </si>
-  <si>
-    <t>Số phòng:</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>NGÀY 21/12/2024</t>
+  </si>
+  <si>
+    <t>1,250,000</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>Số đoàn:</t>
-  </si>
-  <si>
-    <t>NGÀY 2/12/2024</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>NGÀY 3/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 4/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 5/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 6/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 7/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 8/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 9/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 10/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 11/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 12/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 13/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 14/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 15/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 16/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 17/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 18/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 19/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 20/12/2024</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>NGÀY 21/12/2024</t>
-  </si>
-  <si>
-    <t>1,250,000</t>
-  </si>
-  <si>
     <t>NGÀY 22/12/2024</t>
   </si>
   <si>
@@ -195,9 +198,6 @@
   </si>
   <si>
     <t>800,000</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>NGÀY 25/12/2024</t>
@@ -652,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -759,106 +759,79 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>15</v>
+      <c r="B7" s="6">
+        <f>SUM(E:E, F:F, G:G)</f>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -866,14 +839,6 @@
         <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -910,7 +875,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -958,7 +923,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -970,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -987,7 +952,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -995,15 +960,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -1042,7 +1007,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1090,7 +1055,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -1102,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -1119,7 +1084,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -1127,15 +1092,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -1174,7 +1139,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1222,7 +1187,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -1234,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -1251,7 +1216,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -1259,15 +1224,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -1306,7 +1271,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1354,7 +1319,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -1366,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -1383,7 +1348,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -1391,15 +1356,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -1438,7 +1403,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1486,7 +1451,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -1498,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -1515,7 +1480,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -1523,15 +1488,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -1570,7 +1535,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1618,7 +1583,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -1630,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -1647,7 +1612,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -1655,15 +1620,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -1702,7 +1667,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1750,7 +1715,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -1762,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -1779,7 +1744,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -1787,15 +1752,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -1834,7 +1799,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1882,7 +1847,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -1894,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -1911,7 +1876,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -1919,15 +1884,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -1966,7 +1931,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2014,7 +1979,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -2026,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -2043,7 +2008,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -2051,15 +2016,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -2098,7 +2063,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2146,7 +2111,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -2158,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -2175,7 +2140,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -2183,15 +2148,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -2230,7 +2195,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2278,7 +2243,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -2290,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -2307,7 +2272,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -2315,15 +2280,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -2362,7 +2327,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2413,16 +2378,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>15</v>
@@ -2445,7 +2410,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -2457,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
@@ -2474,7 +2439,7 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -2482,7 +2447,7 @@
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>44</v>
@@ -2490,7 +2455,7 @@
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>15</v>
@@ -2580,16 +2545,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>15</v>
@@ -2615,16 +2580,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>15</v>
@@ -2650,16 +2615,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>15</v>
@@ -2682,7 +2647,7 @@
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>15</v>
@@ -2711,7 +2676,7 @@
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -2719,15 +2684,15 @@
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>15</v>
@@ -2766,7 +2731,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2814,7 +2779,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -2826,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -2843,7 +2808,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -2851,15 +2816,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -2898,7 +2863,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2946,7 +2911,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -2958,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -2975,7 +2940,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -2983,15 +2948,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -3030,7 +2995,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3081,16 +3046,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>15</v>
@@ -3116,16 +3081,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>15</v>
@@ -3148,7 +3113,7 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>15</v>
@@ -3160,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
@@ -3177,7 +3142,7 @@
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -3185,15 +3150,15 @@
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>15</v>
@@ -3280,7 +3245,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -3292,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -3309,7 +3274,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -3317,15 +3282,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -3412,7 +3377,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -3424,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -3441,7 +3406,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -3449,15 +3414,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -3544,7 +3509,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -3556,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -3573,7 +3538,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -3581,15 +3546,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -3676,7 +3641,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -3688,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -3705,7 +3670,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -3713,15 +3678,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -3808,7 +3773,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -3820,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -3837,7 +3802,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -3845,15 +3810,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -3892,7 +3857,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3940,7 +3905,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -3952,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -3969,7 +3934,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -3977,15 +3942,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -4072,7 +4037,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -4084,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -4101,7 +4066,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -4109,15 +4074,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -4204,7 +4169,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -4216,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -4233,7 +4198,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -4241,15 +4206,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -4321,16 +4286,16 @@
         <v>65</v>
       </c>
       <c r="C4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4">
-        <v>16100000</v>
+        <v>15700000</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>1300000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4426,7 +4391,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4474,7 +4439,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -4486,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -4503,7 +4468,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -4511,15 +4476,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -4558,7 +4523,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4606,7 +4571,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -4618,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -4635,7 +4600,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -4643,15 +4608,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -4690,7 +4655,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4738,7 +4703,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -4750,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -4767,7 +4732,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -4775,15 +4740,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -4822,7 +4787,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4870,7 +4835,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -4882,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -4899,7 +4864,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -4907,15 +4872,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -4954,7 +4919,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5002,7 +4967,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -5014,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -5031,7 +4996,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -5039,15 +5004,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
@@ -5086,7 +5051,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5134,7 +5099,7 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
@@ -5146,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>15</v>
@@ -5163,7 +5128,7 @@
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6">
         <f>SUM(E:E, F:F, G:G)</f>
@@ -5171,15 +5136,15 @@
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>

--- a/backend/exports/Bao-cao-doanh-thu-Thang-12-2024.xlsx
+++ b/backend/exports/Bao-cao-doanh-thu-Thang-12-2024.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="65">
   <si>
     <t>BẢNG KÊ DOANH THU</t>
   </si>
@@ -83,123 +83,114 @@
     <t>Ghi chú</t>
   </si>
   <si>
+    <t>Tổng:</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Tổng doanh thu:</t>
+  </si>
+  <si>
+    <t>Số phòng:</t>
+  </si>
+  <si>
+    <t>Số đoàn:</t>
+  </si>
+  <si>
+    <t>NGÀY 2/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 3/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 4/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 5/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 6/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 7/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 8/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 9/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 10/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 11/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 12/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 13/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 14/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 15/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 16/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 17/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 18/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 19/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 20/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 21/12/2024</t>
+  </si>
+  <si>
+    <t>NGÀY 22/12/2024</t>
+  </si>
+  <si>
     <t>phòng đôi</t>
   </si>
   <si>
     <t>400,000</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>phòng VIP</t>
   </si>
   <si>
     <t>450,000</t>
   </si>
   <si>
-    <t>Tổng:</t>
-  </si>
-  <si>
-    <t>1,300,000</t>
-  </si>
-  <si>
-    <t>Tổng doanh thu:</t>
-  </si>
-  <si>
-    <t>Số phòng:</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Số đoàn:</t>
-  </si>
-  <si>
-    <t>NGÀY 2/12/2024</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>NGÀY 3/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 4/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 5/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 6/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 7/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 8/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 9/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 10/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 11/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 12/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 13/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 14/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 15/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 16/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 17/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 18/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 19/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 20/12/2024</t>
+    <t>2,900,000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>NGÀY 23/12/2024</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>NGÀY 21/12/2024</t>
-  </si>
-  <si>
-    <t>1,250,000</t>
-  </si>
-  <si>
-    <t>NGÀY 22/12/2024</t>
-  </si>
-  <si>
-    <t>NGÀY 23/12/2024</t>
-  </si>
-  <si>
     <t>NGÀY 24/12/2024</t>
   </si>
   <si>
-    <t>800,000</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>NGÀY 25/12/2024</t>
   </si>
   <si>
@@ -239,16 +230,13 @@
     <t>Tổng doanh thu</t>
   </si>
   <si>
-    <t>1/12/2024</t>
-  </si>
-  <si>
-    <t>20/12/2024</t>
-  </si>
-  <si>
-    <t>21/12/2024</t>
-  </si>
-  <si>
-    <t>24/12/2024</t>
+    <t>22/12/2024</t>
+  </si>
+  <si>
+    <t>23/12/2024</t>
+  </si>
+  <si>
+    <t>26/12/2024</t>
   </si>
 </sst>
 </file>
@@ -310,9 +298,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,7 +640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -719,162 +707,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="9" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +793,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -958,55 +841,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +925,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1090,55 +973,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1057,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1222,55 +1105,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1306,7 +1189,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1354,55 +1237,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1438,7 +1321,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1486,55 +1369,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1570,7 +1453,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1618,55 +1501,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1585,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1750,55 +1633,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1834,7 +1717,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1882,55 +1765,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1966,7 +1849,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2014,55 +1897,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +1981,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2146,55 +2029,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2230,7 +2113,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2278,55 +2161,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2341,7 +2224,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -2362,7 +2245,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2408,92 +2291,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +2356,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -2529,7 +2377,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2575,162 +2423,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="9" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2745,7 +2488,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -2766,7 +2509,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2812,57 +2555,302 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="13" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2877,7 +2865,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -2898,7 +2886,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2944,57 +2932,92 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3009,7 +3032,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -3030,7 +3053,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3076,127 +3099,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3232,7 +3185,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3280,55 +3233,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3343,7 +3296,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -3364,7 +3317,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3410,57 +3363,92 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3496,7 +3484,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3544,55 +3532,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3628,7 +3616,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3676,55 +3664,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3760,7 +3748,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3808,55 +3796,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +3880,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3940,55 +3928,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4024,7 +4012,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4072,55 +4060,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4156,7 +4144,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4204,55 +4192,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4267,7 +4255,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
@@ -4285,7 +4273,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4293,104 +4281,84 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" ht="25" customHeight="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="25" customHeight="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="C4" s="6">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5200000</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>550000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" ht="25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>16100000</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D6" s="6">
+        <v>400000</v>
+      </c>
+      <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
-        <v>1300000</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="F6" s="6">
         <v>400000</v>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>-100000</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2000000</v>
-      </c>
-      <c r="F7" s="4">
-        <v>800000</v>
       </c>
     </row>
   </sheetData>
@@ -4426,7 +4394,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4474,55 +4442,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4558,7 +4526,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4606,55 +4574,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4690,7 +4658,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4738,55 +4706,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4822,7 +4790,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4870,55 +4838,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -4954,7 +4922,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5002,55 +4970,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5086,7 +5054,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5134,55 +5102,55 @@
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
-        <f>SUM(E:E, F:F, G:G)</f>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" ht="25" customHeight="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/backend/exports/Bao-cao-doanh-thu-Thang-12-2024.xlsx
+++ b/backend/exports/Bao-cao-doanh-thu-Thang-12-2024.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="64">
   <si>
     <t>BẢNG KÊ DOANH THU</t>
   </si>
@@ -122,6 +122,15 @@
     <t>NGÀY 8/12/2024</t>
   </si>
   <si>
+    <t>phòng đôi</t>
+  </si>
+  <si>
+    <t>400,000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>NGÀY 9/12/2024</t>
   </si>
   <si>
@@ -164,30 +173,21 @@
     <t>NGÀY 22/12/2024</t>
   </si>
   <si>
-    <t>phòng đôi</t>
-  </si>
-  <si>
-    <t>400,000</t>
-  </si>
-  <si>
     <t>phòng VIP</t>
   </si>
   <si>
     <t>450,000</t>
   </si>
   <si>
-    <t>2,900,000</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>2,500,000</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>NGÀY 23/12/2024</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>NGÀY 24/12/2024</t>
   </si>
   <si>
@@ -230,13 +230,10 @@
     <t>Tổng doanh thu</t>
   </si>
   <si>
+    <t>8/12/2024</t>
+  </si>
+  <si>
     <t>22/12/2024</t>
-  </si>
-  <si>
-    <t>23/12/2024</t>
-  </si>
-  <si>
-    <t>26/12/2024</t>
   </si>
 </sst>
 </file>
@@ -793,7 +790,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -925,7 +922,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1057,7 +1054,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1189,7 +1186,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1321,7 +1318,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1453,7 +1450,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1585,7 +1582,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1717,7 +1714,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1849,7 +1846,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1981,7 +1978,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2245,7 +2242,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2377,7 +2374,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2488,7 +2485,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -2509,7 +2506,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2560,16 +2557,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>14</v>
@@ -2595,16 +2592,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>14</v>
@@ -2630,16 +2627,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>14</v>
@@ -2665,16 +2662,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>14</v>
@@ -2700,16 +2697,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>14</v>
@@ -2735,16 +2732,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>14</v>
@@ -2765,91 +2762,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="10" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>14</v>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="5">
-        <f>SUM(E:E, F:F, G:G)</f>
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2865,7 +2827,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -2886,7 +2848,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2932,91 +2894,56 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5">
-        <f>SUM(E:E, F:F, G:G)</f>
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3296,7 +3223,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -3363,91 +3290,56 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5">
-        <f>SUM(E:E, F:F, G:G)</f>
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4255,7 +4147,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="6" width="20" customWidth="1"/>
@@ -4309,16 +4201,16 @@
         <v>62</v>
       </c>
       <c r="C4" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
-        <v>5200000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>0</v>
+        <v>550000</v>
       </c>
       <c r="F4" s="6">
-        <v>2900000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4329,36 +4221,16 @@
         <v>63</v>
       </c>
       <c r="C5" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6">
-        <v>550000</v>
+        <v>5200000</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="6">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="6" ht="25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>400000</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>400000</v>
+        <v>2500000</v>
       </c>
     </row>
   </sheetData>
@@ -4901,7 +4773,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="20" customWidth="1"/>
@@ -4968,56 +4840,91 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5">
-        <f>SUM(E:E, F:F, G:G)</f>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <f>SUM(E:E, F:F, G:G)</f>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5054,7 +4961,7 @@
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
